--- a/ig/ch-epr-fhir/StructureDefinition-ch-pdqm-matchparametersout.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-pdqm-matchparametersout.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="358">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -367,7 +367,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -927,14 +927,23 @@
     <t>MatchGrade</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {match-grade|5.2.0}
+    <t xml:space="preserve">Extension {match-grade|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
     <t>How likely this resource is to be a match</t>
   </si>
   <si>
-    <t>Assessment of resource match outcome - how likely this resource is to be a match.</t>
+    <t>Assessment of resource match outcome - how likely this resource is to be a match. This extension is intended to supplement the search score with a coded value that can provide more discrete values than a numeric 'ordering' style score.</t>
+  </si>
+  <si>
+    <t>A score is not required to use the grade.
+This is returned by the Patient $match operation (though could be used by similar operations on other resource types).
+The codes 'probable' and 'possible' although similar, indicate the level of confidence the matching engine has that the result is a match. This could be through the number of matching fields, or other similar levels of certainty. Probable indicates that the match is likely, however  possible indicates it had some partial matching data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Bundle.entry:Patient.search.modifierExtension</t>
@@ -8100,7 +8109,9 @@
       <c r="M59" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8158,7 +8169,7 @@
         <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>164</v>
@@ -8178,7 +8189,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>203</v>
@@ -8294,7 +8305,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>204</v>
@@ -8340,7 +8351,7 @@
         <v>79</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>79</v>
@@ -8408,7 +8419,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>210</v>
@@ -8522,7 +8533,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>215</v>
@@ -8634,7 +8645,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>219</v>
@@ -8746,7 +8757,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>220</v>
@@ -8860,7 +8871,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>221</v>
@@ -8976,7 +8987,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>222</v>
@@ -9088,7 +9099,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>227</v>
@@ -9202,7 +9213,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>231</v>
@@ -9314,7 +9325,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>234</v>
@@ -9426,7 +9437,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>236</v>
@@ -9538,7 +9549,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>239</v>
@@ -9650,7 +9661,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>242</v>
@@ -9762,7 +9773,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>246</v>
@@ -9874,7 +9885,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>247</v>
@@ -9988,7 +9999,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>248</v>
@@ -10104,7 +10115,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>249</v>
@@ -10216,7 +10227,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>252</v>
@@ -10328,7 +10339,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>255</v>
@@ -10442,7 +10453,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>259</v>
@@ -10556,7 +10567,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>263</v>
@@ -10670,13 +10681,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>79</v>
@@ -10701,7 +10712,7 @@
         <v>147</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>179</v>
@@ -10784,7 +10795,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>183</v>
@@ -10896,7 +10907,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>184</v>
@@ -11010,7 +11021,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>185</v>
@@ -11126,7 +11137,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>186</v>
@@ -11238,7 +11249,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>189</v>
@@ -11352,7 +11363,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>193</v>
@@ -11378,7 +11389,7 @@
         <v>90</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L88" t="s" s="2">
         <v>195</v>
@@ -11464,7 +11475,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>197</v>
@@ -11576,7 +11587,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>201</v>
@@ -11688,7 +11699,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>202</v>
@@ -11802,7 +11813,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>203</v>
@@ -11918,7 +11929,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>204</v>
@@ -12032,7 +12043,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>210</v>
@@ -12146,7 +12157,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>215</v>
@@ -12258,7 +12269,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>219</v>
@@ -12370,7 +12381,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>220</v>
@@ -12484,7 +12495,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>221</v>
@@ -12600,7 +12611,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>222</v>
@@ -12712,7 +12723,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>227</v>
@@ -12826,7 +12837,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>231</v>
@@ -12938,7 +12949,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>234</v>
@@ -13050,7 +13061,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>236</v>
@@ -13162,7 +13173,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>239</v>
@@ -13274,7 +13285,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>242</v>
@@ -13386,7 +13397,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>246</v>
@@ -13498,7 +13509,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>247</v>
@@ -13612,7 +13623,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>248</v>
@@ -13728,7 +13739,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>249</v>
@@ -13840,7 +13851,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>252</v>
@@ -13952,7 +13963,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>255</v>
@@ -14066,7 +14077,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>259</v>
@@ -14180,7 +14191,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>263</v>
@@ -14294,10 +14305,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14320,19 +14331,19 @@
         <v>90</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>79</v>
@@ -14381,7 +14392,7 @@
         <v>79</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
